--- a/biology/Zoologie/Corydoras_pygmaeus/Corydoras_pygmaeus.xlsx
+++ b/biology/Zoologie/Corydoras_pygmaeus/Corydoras_pygmaeus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corydoras pygmaeus, communément appelé Corydoras nain[réf. nécessaire], est une espèce de petits poissons-chats tropicaux originaires d'Amérique du Sud. Il est connu dans le monde aquariophile pour être l’un des plus petits Corydoras à maintenir[1]. La première description scientifique de ce poisson a été réalisée par le biologiste et physicien allemand Joachim Knaack[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corydoras pygmaeus, communément appelé Corydoras nain[réf. nécessaire], est une espèce de petits poissons-chats tropicaux originaires d'Amérique du Sud. Il est connu dans le monde aquariophile pour être l’un des plus petits Corydoras à maintenir. La première description scientifique de ce poisson a été réalisée par le biologiste et physicien allemand Joachim Knaack.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corydoras pygmaeus se rencontre dans le bassin du rio Madeira[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corydoras pygmaeus se rencontre dans le bassin du rio Madeira.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces petits poissons de fond appartiennent à la famille des Callichtyidae, ils possèdent de courts barbillons qu’ils utilisent pour fouiller le sol à la recherche de nourriture. Corydoras pygmaeus mesure environ 2 à 3 cm et arborent un mélange de couleurs variant du gris au blanc.
 Ces poissons sont de nature grégaire vivant en groupes de plusieurs centaines d’individus dans la nature. Corydoras pygmaeus est une espèce ovipares qui pond sur du substrat découvert ou parfois sur les feuilles de plantes en aquarium.
@@ -575,7 +591,9 @@
           <t>Maintenance en captivité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Corydoras pygmaeus nécessite des paramètres d’eau similaire aux autres espèces du genre, de nature omnivore il accepte une grande variété d’aliments industriels ou congelés, comme les vers de vase qu’il apprécie grandement.
 Corydoras pygmaeus est un poisson grégaire qui nécessite d’être maintenu dans un groupe d'au moins huit individus afin de s’épanouir pleinement.
@@ -609,9 +627,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corydoras pygmaeus est un poisson ovipare. La femelle pond en moyenne une centaine d'œufs. La femelle les maintient par groupe de deux à quatre entre ses nageoires pelviennes puis les fait féconder par le mâle avec une position singulière appelé position T[réf. nécessaire] et ce pendant environ 30 s[3]. Elle les dépose ensuite à l'endroit choisi où ils resteront car ils sont très collants. Puis le scénario reprend et ce jusqu'à ce que tous les œufs soient fécondés et déposés[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corydoras pygmaeus est un poisson ovipare. La femelle pond en moyenne une centaine d'œufs. La femelle les maintient par groupe de deux à quatre entre ses nageoires pelviennes puis les fait féconder par le mâle avec une position singulière appelé position T[réf. nécessaire] et ce pendant environ 30 s. Elle les dépose ensuite à l'endroit choisi où ils resteront car ils sont très collants. Puis le scénario reprend et ce jusqu'à ce que tous les œufs soient fécondés et déposés.
 </t>
         </is>
       </c>
@@ -640,9 +660,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Corydoras pygmaeus Knaack, 1966[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Corydoras pygmaeus Knaack, 1966.
 </t>
         </is>
       </c>
